--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudprodamazhotmail-my.sharepoint.com/personal/matheusamarinho_prefeitura_sp_gov_br/Documents/Github/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudprodamazhotmail-my.sharepoint.com/personal/matheusamarinho_prefeitura_sp_gov_br/Documents/Github/VisualizadorDeMetas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D41A0A59-FD12-45B5-9BA9-621F930E878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D41A0A59-FD12-45B5-9BA9-621F930E878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53DE2DAF-BB0D-4A36-81BE-0D1AE052D429}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2025" windowWidth="21600" windowHeight="13455" xr2:uid="{96869C97-D80D-464A-81B6-F0F8268E5FED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96869C97-D80D-464A-81B6-F0F8268E5FED}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha7" sheetId="11" r:id="rId1"/>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D81E67B-4A45-4737-8C67-0B051B7F81D8}">
   <dimension ref="A1:C881"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>123</v>
       </c>
